--- a/order_history_2025-03-08.xlsx
+++ b/order_history_2025-03-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Delivered</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Not Paid</t>
+          <t>Paid</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -922,6 +922,41 @@
       <c r="G14" t="inlineStr">
         <is>
           <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20250308004312</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-03-08 00:43:12</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Roti Sabzi', 'Price': 100.0}]</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>100</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Delivered</t>
         </is>
       </c>
     </row>

--- a/order_history_2025-03-08.xlsx
+++ b/order_history_2025-03-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -960,6 +960,41 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>20250308110347</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-03-08 11:03:47</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Veg Thali', 'Price': 150.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Veg Thali', 'Price': 150.0}]</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>400</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/order_history_2025-03-08.xlsx
+++ b/order_history_2025-03-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -995,6 +995,356 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20250308120156</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-03-08 12:01:56</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Dal Rice', 'Price': 120.0}, {'Item Name': 'South Indian Thali', 'Price': 200.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>420</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20250308120254</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-03-08 12:02:54</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>300</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20250308121654</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-03-08 12:16:54</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}]</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>600</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20250308121701</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-03-08 12:17:01</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}]</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>600</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20250308121955</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-03-08 12:19:55</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Veg Thali', 'Price': 150.0}, {'Item Name': 'Veg Thali', 'Price': 150.0}, {'Item Name': 'Veg Thali', 'Price': 150.0}]</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>450</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20250308121955</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-03-08 12:19:55</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Veg Thali', 'Price': 150.0}, {'Item Name': 'Veg Thali', 'Price': 150.0}, {'Item Name': 'Veg Thali', 'Price': 150.0}]</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>450</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20250308122353</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-03-08 12:23:53</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Dal Rice', 'Price': 120.0}, {'Item Name': 'Dal Rice', 'Price': 120.0}, {'Item Name': 'Dal Rice', 'Price': 120.0}, {'Item Name': 'Dal Rice', 'Price': 120.0}]</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>480</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20250308122402</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-03-08 12:24:02</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Dal Rice', 'Price': 120.0}, {'Item Name': 'Dal Rice', 'Price': 120.0}, {'Item Name': 'Dal Rice', 'Price': 120.0}, {'Item Name': 'Dal Rice', 'Price': 120.0}]</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>480</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20250308122537</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-03-08 12:25:37</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Paneer Special', 'Price': 180.0}, {'Item Name': 'Paneer Special', 'Price': 180.0}]</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>360</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>20250308122656</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-03-08 12:26:56</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}]</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>300</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/order_history_2025-03-08.xlsx
+++ b/order_history_2025-03-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>Delivery Status</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Customer Name</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -504,6 +509,11 @@
           <t>Pending</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -539,6 +549,11 @@
           <t>Delivered</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -574,6 +589,11 @@
           <t>Delivered</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -609,6 +629,11 @@
           <t>Delivered</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -644,6 +669,11 @@
           <t>Delivered</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -679,6 +709,11 @@
           <t>Pending</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -714,6 +749,11 @@
           <t>Pending</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -749,6 +789,11 @@
           <t>Pending</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -784,6 +829,11 @@
           <t>Delivered</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -819,6 +869,11 @@
           <t>Delivered</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -854,6 +909,11 @@
           <t>Delivered</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -889,6 +949,11 @@
           <t>Delivered</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -924,6 +989,11 @@
           <t>Pending</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -959,6 +1029,11 @@
           <t>Delivered</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -994,6 +1069,11 @@
           <t>Delivered</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1029,6 +1109,11 @@
           <t>Delivered</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1064,6 +1149,11 @@
           <t>Delivered</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1099,6 +1189,11 @@
           <t>Pending</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1134,6 +1229,11 @@
           <t>Pending</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1169,6 +1269,11 @@
           <t>Pending</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1204,6 +1309,11 @@
           <t>Pending</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1239,6 +1349,11 @@
           <t>Pending</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1274,6 +1389,11 @@
           <t>Pending</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1309,6 +1429,11 @@
           <t>Pending</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1342,6 +1467,811 @@
       <c r="G26" t="inlineStr">
         <is>
           <t>Delivered</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20250308122815</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-03-08 12:28:15</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Veg Thali', 'Price': 150.0}, {'Item Name': 'Paneer Special', 'Price': 180.0}]</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>330</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20250308123025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-03-08 12:30:25</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'South Indian Thali', 'Price': 200.0}, {'Item Name': 'South Indian Thali', 'Price': 200.0}]</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>800</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20250308124203</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-03-08 12:42:03</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Veg Thali', 'Price': 150.0}, {'Item Name': 'Veg Thali', 'Price': 150.0}, {'Item Name': 'Veg Thali', 'Price': 150.0}]</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>450</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20250308131225</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-03-08 13:12:25</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Roti Sabzi', 'Price': 100.0}]</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>100</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20250308131244</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-03-08 13:12:44</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20250308131304</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-03-08 13:13:04</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Paneer Special', 'Price': 180.0}]</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>180</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20250308131424</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-03-08 13:14:24</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}]</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>400</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20250308131539</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-03-08 13:15:39</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}]</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>300</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>dfhkdjh</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20250308132414</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-03-08 13:24:14</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'South Indian Thali', 'Price': 200.0}]</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>300</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20250308132522</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-03-08 13:25:22</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Veg Thali', 'Price': 150.0}, {'Item Name': 'Veg Thali', 'Price': 150.0}, {'Item Name': 'Veg Thali', 'Price': 150.0}]</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>450</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>rajas</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20250308133046</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-03-08 13:30:46</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Roti Sabzi', 'Price': 100.0}]</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>100</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>20250308133209</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-03-08 13:32:09</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}]</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>200</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20250308133215</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-03-08 13:32:15</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}]</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>200</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20250308133215</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-03-08 13:32:15</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}]</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>200</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20250308133215</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-03-08 13:32:15</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}]</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>200</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20250308155055</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-03-08 15:50:55</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Paneer Special', 'Price': 180.0}, {'Item Name': 'Paneer Special', 'Price': 180.0}]</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>360</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20250308155314</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-03-08 15:53:14</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}]</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>200</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20250308155322</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-03-08 15:53:22</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}]</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>200</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>sds</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20250308155356</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-03-08 15:53:56</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'South Indian Thali', 'Price': 200.0}, {'Item Name': 'South Indian Thali', 'Price': 200.0}]</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>400</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20250308155419</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-03-08 15:54:19</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Veg Thali', 'Price': 150.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}]</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>450</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>rajas 1</t>
         </is>
       </c>
     </row>

--- a/order_history_2025-03-08.xlsx
+++ b/order_history_2025-03-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,166 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20250308000711</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-03-08 00:07:11</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Veg Thali', 'Price': 150.0}]</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>150</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20250308000718</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-03-08 00:07:18</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Dal Rice', 'Price': 120.0}]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>120</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20250308155356</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-03-08 15:53:56</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'South Indian Thali', 'Price': 200.0}, {'Item Name': 'South Indian Thali', 'Price': 200.0}]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>400</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20250308155419</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-03-08 15:54:19</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[{'Item Name': 'Veg Thali', 'Price': 150.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}, {'Item Name': 'Roti Sabzi', 'Price': 100.0}]</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>450</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Not Paid</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>rajas 1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
